--- a/biology/Zoologie/Hadronyche_orana/Hadronyche_orana.xlsx
+++ b/biology/Zoologie/Hadronyche_orana/Hadronyche_orana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadronyche orana est une espèce d'araignées mygalomorphes de la famille des Atracidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadronyche orana est une espèce d'araignées mygalomorphes de la famille des Atracidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans l'Orana dans le centre-Est de l'État[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans l'Orana dans le centre-Est de l'État.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 7,76 mm de long sur 7,41 mm et l'abdomen 8,04 mm de long sur 6,57 mm et la carapace de la femelle paratype mesure 8,57 mm de long sur 8,67 mm et l'abdomen 14,21 mm de long sur 11,22 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 7,76 mm de long sur 7,41 mm et l'abdomen 8,04 mm de long sur 6,57 mm et la carapace de la femelle paratype mesure 8,57 mm de long sur 8,67 mm et l'abdomen 14,21 mm de long sur 11,22 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'Orana.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 2010 : A revision of the Australian funnel-web spiders (Hexathelidae: Atracinae). Records of the Australian Museum, vol. 62, p. 285-392 (texte intégral).</t>
         </is>
